--- a/proyecto_SII/Artefactos/Version_1/SII_it1_1_Kanban_v1.0.xlsx
+++ b/proyecto_SII/Artefactos/Version_1/SII_it1_1_Kanban_v1.0.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayham BDBB\Desktop\Entrega_3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Kanban" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -590,19 +585,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,16 +606,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,6 +614,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,11 +639,14 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,19 +654,13 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +668,15 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3979,7 +3974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4014,7 +4009,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4225,8 +4220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4265,12 +4260,12 @@
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
@@ -4294,7 +4289,7 @@
       <c r="K7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4307,10 +4302,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="32">
         <v>41869</v>
       </c>
     </row>
@@ -4323,10 +4318,10 @@
         <v>6</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10" s="13"/>
@@ -4337,10 +4332,10 @@
         <v>7</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11" s="13"/>
@@ -4354,7 +4349,7 @@
       <c r="K11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="27">
         <v>41876</v>
       </c>
     </row>
@@ -4370,7 +4365,7 @@
       <c r="K12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="28">
         <v>41892</v>
       </c>
     </row>
@@ -4386,7 +4381,7 @@
       <c r="K13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="35">
         <v>41902</v>
       </c>
     </row>
@@ -4402,7 +4397,7 @@
       <c r="K14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="31"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D15" s="13"/>
@@ -4416,7 +4411,7 @@
       <c r="K15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D16" s="13"/>
@@ -4430,7 +4425,7 @@
       <c r="K16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="29">
         <v>41916</v>
       </c>
     </row>
@@ -4446,8 +4441,8 @@
       <c r="K17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="41">
-        <v>41918</v>
+      <c r="L17" s="35">
+        <v>41919</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
@@ -4458,73 +4453,73 @@
       <c r="I18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="31"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="41">
         <v>1</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="31"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="26" t="s">
+      <c r="J20" s="42"/>
+      <c r="K20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="31"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="23">
         <v>2</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="41">
         <v>3</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="38">
         <v>41927</v>
       </c>
     </row>
@@ -4533,30 +4528,30 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="42"/>
+      <c r="K23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="40"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="24">
         <v>4</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="29">
         <v>41934</v>
       </c>
     </row>
@@ -4565,16 +4560,16 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="24">
         <v>5</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="29">
         <v>41941</v>
       </c>
     </row>
@@ -4583,16 +4578,16 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="41">
         <v>6</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="35">
         <v>41948</v>
       </c>
     </row>
@@ -4601,29 +4596,29 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="24" t="s">
+      <c r="J27" s="42"/>
+      <c r="K27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="42"/>
+      <c r="L27" s="37"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="41">
         <v>7</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="35">
         <v>41955</v>
       </c>
     </row>
@@ -4632,30 +4627,30 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="24" t="s">
+      <c r="J29" s="42"/>
+      <c r="K29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="42"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="41">
         <v>8</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="36">
         <v>41962</v>
       </c>
     </row>
@@ -4663,29 +4658,29 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="I31" s="22" t="s">
+      <c r="I31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="24" t="s">
+      <c r="J31" s="42"/>
+      <c r="K31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="31"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="G32" s="15"/>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="24">
         <v>9</v>
       </c>
-      <c r="K32" s="44" t="s">
+      <c r="K32" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="31">
         <v>41967</v>
       </c>
     </row>
@@ -4697,13 +4692,13 @@
       <c r="I33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="41">
         <v>10</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="46"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" s="15"/>
@@ -4711,21 +4706,21 @@
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="24" t="s">
+      <c r="J34" s="42"/>
+      <c r="K34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="47"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" s="15"/>
@@ -4801,11 +4796,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J19:J20"/>
     <mergeCell ref="I35:L35"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="J26:J27"/>
@@ -4815,8 +4807,11 @@
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="L33:L34"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L26:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
